--- a/indicators/output/merged_indicators.xlsx
+++ b/indicators/output/merged_indicators.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="alexandrod"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1759662245" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1759662245" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1759662245" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1759662245"/>
+      <pm:revision xmlns:pm="smNativeData" day="1763753970" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1763753970" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1763753970" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1763753970"/>
     </ext>
   </extLst>
 </workbook>
@@ -1289,7 +1289,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759662245" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759662245" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1320,7 +1320,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1759662245" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -1329,7 +1329,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1339,8 +1339,41 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800180"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="50" fgClr="00FF00FF" bgLvl="50" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9EFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="38" fgClr="00FF00FF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1356,7 +1389,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1759662245"/>
+          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
         </ext>
       </extLst>
     </border>
@@ -1375,7 +1408,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1759662245">
+          <pm:border xmlns:pm="smNativeData" id="1763753970">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1384,15 +1417,78 @@
         </ext>
       </extLst>
     </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1400,7 +1496,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1759662245" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1763753970" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1666,11 +1762,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="5.839286" customWidth="1"/>
+    <col min="2" max="2" width="18.687500" customWidth="1"/>
+    <col min="3" max="3" width="18.839286" customWidth="1"/>
+    <col min="4" max="4" width="13.687500" customWidth="1"/>
+    <col min="5" max="5" width="125.500000" customWidth="1"/>
+    <col min="6" max="6" width="132.062500" customWidth="1"/>
+    <col min="7" max="7" width="267.857143" customWidth="1"/>
+    <col min="8" max="8" width="25.535714" customWidth="1"/>
+    <col min="9" max="9" width="13.401786" customWidth="1"/>
+    <col min="10" max="10" width="13.000000" customWidth="1"/>
+    <col min="11" max="11" width="12.508929" customWidth="1"/>
+    <col min="12" max="12" width="9.526786" customWidth="1"/>
+    <col min="13" max="13" width="13.008929" customWidth="1"/>
+    <col min="14" max="16384" width="10.000000" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -2167,38 +2279,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2394,73 +2506,75 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="3" t="n">
         <v>2100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="3" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1">
+      <c r="A24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>2100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4" t="n">
         <v>97</v>
       </c>
     </row>
@@ -2499,38 +2613,38 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="5" customFormat="1">
+      <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="5" t="n">
         <v>2110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="5" t="n">
         <v>1929</v>
       </c>
     </row>
@@ -2633,38 +2747,38 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" s="5" customFormat="1">
+      <c r="A30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="5" t="n">
         <v>2120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="5" t="n">
         <v>1958</v>
       </c>
     </row>
@@ -2738,38 +2852,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+    <row r="33" spans="1:11" s="6" customFormat="1">
+      <c r="A33" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="6" t="n">
         <v>2200</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="6" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2808,73 +2922,73 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" s="7" customFormat="1">
+      <c r="A35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="7" t="n">
         <v>2200</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="7" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+    <row r="36" spans="1:11" s="7" customFormat="1">
+      <c r="A36" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="7" t="n">
         <v>2210</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="7" t="n">
         <v>94</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="7" t="n">
         <v>1055</v>
       </c>
     </row>
@@ -3701,7 +3815,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1759662245" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1763753970" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3710,14 +3824,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1759662245" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1759662245" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1763753970" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1763753970" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1759662245" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1763753970" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/indicators/output/merged_indicators.xlsx
+++ b/indicators/output/merged_indicators.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1763753970" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1763753970" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1763753970" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1763753970"/>
+      <pm:revision xmlns:pm="smNativeData" day="1763931513" val="1228" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1763931513" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1763931513" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1763931513"/>
     </ext>
   </extLst>
 </workbook>
@@ -1289,7 +1289,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763931513" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763931513" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1320,7 +1320,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1763753970" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1763931513" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
@@ -1329,7 +1329,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,39 +1341,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800180"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="50" fgClr="00FF00FF" bgLvl="50" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9EFF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="38" fgClr="00FF00FF" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1763753970" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1763931513" type="1" fgLvl="38" fgClr="00FF00FF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1389,7 +1367,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
+          <pm:border xmlns:pm="smNativeData" id="1763931513"/>
         </ext>
       </extLst>
     </border>
@@ -1408,7 +1386,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1763753970">
+          <pm:border xmlns:pm="smNativeData" id="1763931513">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1432,45 +1410,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1763753970"/>
+          <pm:border xmlns:pm="smNativeData" id="1763931513"/>
         </ext>
       </extLst>
     </border>
@@ -1478,17 +1418,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1496,9 +1432,13 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1763753970" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1763931513" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1763931513" count="2">
+        <pm:color name="Color 24" rgb="800180"/>
+        <pm:color name="Color 25" rgb="FF9EFF"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -1762,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2507,74 +2447,74 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1">
-      <c r="A24" s="4" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="2" t="n">
         <v>97</v>
       </c>
     </row>
@@ -2613,38 +2553,38 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:11" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="2" t="n">
         <v>2110</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="2" t="n">
         <v>1929</v>
       </c>
     </row>
@@ -2747,38 +2687,38 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:11" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="2" t="n">
         <v>2120</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="2" t="n">
         <v>1958</v>
       </c>
     </row>
@@ -2852,38 +2792,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:11" s="2" customFormat="1">
+      <c r="A33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="2" t="n">
         <v>2200</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="J33" s="6" t="n">
+      <c r="J33" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K33" s="6" t="n">
+      <c r="K33" s="2" t="n">
         <v>96</v>
       </c>
     </row>
@@ -2922,73 +2862,73 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:11" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="2" t="n">
         <v>2200</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K35" s="7" t="n">
+      <c r="K35" s="2" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="7" customFormat="1">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:11" s="2" customFormat="1">
+      <c r="A36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="2" t="n">
         <v>2210</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="2" t="n">
         <v>1055</v>
       </c>
     </row>
@@ -3097,38 +3037,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="40" spans="1:11" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="3" t="n">
         <v>2300</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="3" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3202,353 +3142,353 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+    <row r="43" spans="1:11" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="3" t="n">
         <v>2310</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="3" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="44" spans="1:11" s="3" customFormat="1">
+      <c r="A44" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="3" t="n">
         <v>2320</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="45" spans="1:11" s="3" customFormat="1">
+      <c r="A45" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="3" t="n">
         <v>2400</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="3" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+    <row r="46" spans="1:11" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="3" t="n">
         <v>2400</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+    <row r="47" spans="1:11" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="3" t="n">
         <v>2410</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="3" t="n">
         <v>199</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="3" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+    <row r="48" spans="1:11" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="3" t="n">
         <v>2410</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="3" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
+    <row r="49" spans="1:11" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="3" t="n">
         <v>2420</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="3" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11" s="3" customFormat="1">
+      <c r="A50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="3" t="n">
         <v>2420</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="3" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+    <row r="51" spans="1:11" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="3" t="n">
         <v>2430</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="3" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="3" t="n">
         <v>2430</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="3" t="n">
         <v>198</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="3" t="n">
         <v>160</v>
       </c>
     </row>
@@ -3569,70 +3509,70 @@
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
+    <row r="54" spans="1:11" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="3" t="n">
         <v>3100</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="3" t="n">
         <v>7200000</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="3" t="n">
         <v>1590019</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+    <row r="55" spans="1:11" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="3" t="n">
         <v>3100</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="3" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3706,38 +3646,38 @@
         <v>16246</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
+    <row r="58" spans="1:11" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="3" t="n">
         <v>3200</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="3" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3776,38 +3716,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
+    <row r="60" spans="1:11" s="3" customFormat="1">
+      <c r="A60" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="3" t="n">
         <v>3220</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="3" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3815,7 +3755,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1763753970" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1763931513" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3824,14 +3764,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1763753970" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1763753970" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1763931513" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1763931513" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1763753970" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1763931513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
